--- a/separated regions.xlsx
+++ b/separated regions.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>formation energy per atom</t>
+          <t>chemsys</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -545,7 +545,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +589,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1011,7 +1011,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1055,7 +1055,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1099,7 +1099,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1143,7 +1143,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1187,7 +1187,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1231,7 +1231,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1383,7 +1383,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1427,7 +1427,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1471,7 +1471,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1515,7 +1515,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1721,7 +1721,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1765,7 +1765,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1863,7 +1863,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2015,7 +2015,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2059,7 +2059,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2157,7 +2157,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2201,7 +2201,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2407,7 +2407,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2451,7 +2451,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2711,7 +2711,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2755,7 +2755,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2853,7 +2853,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2897,7 +2897,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>formation energy per atom</t>
+          <t>chemsys</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3189,7 +3189,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3233,7 +3233,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3331,7 +3331,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3375,7 +3375,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3419,7 +3419,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3517,7 +3517,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3615,7 +3615,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3831,7 +3831,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4199,7 +4199,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4469,7 +4469,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4513,7 +4513,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4557,7 +4557,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4611,7 +4611,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4655,7 +4655,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4699,7 +4699,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4851,7 +4851,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4895,7 +4895,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4939,7 +4939,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4983,7 +4983,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5027,7 +5027,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -5071,7 +5071,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -5115,7 +5115,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -5169,7 +5169,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5213,7 +5213,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5311,7 +5311,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5365,7 +5365,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5463,7 +5463,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5507,7 +5507,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5615,7 +5615,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -5723,7 +5723,7 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5831,7 +5831,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5875,7 +5875,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5919,7 +5919,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5963,7 +5963,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -6061,7 +6061,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -6169,7 +6169,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -6223,7 +6223,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -6277,7 +6277,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -6321,7 +6321,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -6365,7 +6365,7 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -6409,7 +6409,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6463,7 +6463,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6561,7 +6561,7 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -6615,7 +6615,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -6723,7 +6723,7 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -6777,7 +6777,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6831,7 +6831,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -6875,7 +6875,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -6973,7 +6973,7 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -7081,7 +7081,7 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -7125,7 +7125,7 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -7169,7 +7169,7 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -7223,7 +7223,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -7267,7 +7267,7 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -7365,7 +7365,7 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -7409,7 +7409,7 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -7453,7 +7453,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -7561,7 +7561,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -7659,7 +7659,7 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -7713,7 +7713,7 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -7875,7 +7875,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -7983,7 +7983,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -8091,7 +8091,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -8199,7 +8199,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -8361,7 +8361,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -8415,7 +8415,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -8513,7 +8513,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -8665,7 +8665,7 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -8773,7 +8773,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -8817,7 +8817,7 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -8969,7 +8969,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -9013,7 +9013,7 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -9067,7 +9067,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -9229,7 +9229,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -9283,7 +9283,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -9391,7 +9391,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -9435,7 +9435,7 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -9479,7 +9479,7 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -9533,7 +9533,7 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -9577,7 +9577,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -9631,7 +9631,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -9685,7 +9685,7 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -9729,7 +9729,7 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -9773,7 +9773,7 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -9817,7 +9817,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -9925,7 +9925,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -9979,7 +9979,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -10033,7 +10033,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -10141,7 +10141,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -10185,7 +10185,7 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -10229,7 +10229,7 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -10273,7 +10273,7 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -10381,7 +10381,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -10435,7 +10435,7 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -10489,7 +10489,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -10543,7 +10543,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -10597,7 +10597,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -10651,7 +10651,7 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -10705,7 +10705,7 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -10759,7 +10759,7 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -10803,7 +10803,7 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -10857,7 +10857,7 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -10911,7 +10911,7 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -10965,7 +10965,7 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -11019,7 +11019,7 @@
         </is>
       </c>
       <c r="N158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -11063,7 +11063,7 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -11107,7 +11107,7 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -11151,7 +11151,7 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -11249,7 +11249,7 @@
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -11357,7 +11357,7 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -11411,7 +11411,7 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -11455,7 +11455,7 @@
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -11509,7 +11509,7 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -11563,7 +11563,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -11617,7 +11617,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="N171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -11725,7 +11725,7 @@
         </is>
       </c>
       <c r="N172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -11779,7 +11779,7 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -11833,7 +11833,7 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -11877,7 +11877,7 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -11921,7 +11921,7 @@
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -11975,7 +11975,7 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -12029,7 +12029,7 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -12073,7 +12073,7 @@
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -12117,7 +12117,7 @@
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -12161,7 +12161,7 @@
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -12215,7 +12215,7 @@
         </is>
       </c>
       <c r="N182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -12269,7 +12269,7 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -12313,7 +12313,7 @@
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -12357,7 +12357,7 @@
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -12411,7 +12411,7 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -12455,7 +12455,7 @@
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -12509,7 +12509,7 @@
         </is>
       </c>
       <c r="N188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -12553,7 +12553,7 @@
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -12607,7 +12607,7 @@
         </is>
       </c>
       <c r="N190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -12661,7 +12661,7 @@
         </is>
       </c>
       <c r="N191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -12705,7 +12705,7 @@
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -12749,7 +12749,7 @@
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -12803,7 +12803,7 @@
         </is>
       </c>
       <c r="N194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -12847,7 +12847,7 @@
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -12901,7 +12901,7 @@
         </is>
       </c>
       <c r="N196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -12945,7 +12945,7 @@
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="N198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -13043,7 +13043,7 @@
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -13087,7 +13087,7 @@
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -13131,7 +13131,7 @@
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -13175,7 +13175,7 @@
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -13219,7 +13219,7 @@
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -13273,7 +13273,7 @@
         </is>
       </c>
       <c r="N204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -13327,7 +13327,7 @@
         </is>
       </c>
       <c r="N205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -13381,7 +13381,7 @@
         </is>
       </c>
       <c r="N206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -13435,7 +13435,7 @@
         </is>
       </c>
       <c r="N207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -13489,7 +13489,7 @@
         </is>
       </c>
       <c r="N208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -13543,7 +13543,7 @@
         </is>
       </c>
       <c r="N209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -13597,7 +13597,7 @@
         </is>
       </c>
       <c r="N210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -13651,7 +13651,7 @@
         </is>
       </c>
       <c r="N211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -13695,7 +13695,7 @@
       <c r="L212" t="inlineStr"/>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -13739,7 +13739,7 @@
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -13793,7 +13793,7 @@
         </is>
       </c>
       <c r="N214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="N215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -13891,7 +13891,7 @@
       <c r="L216" t="inlineStr"/>
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -13935,7 +13935,7 @@
       <c r="L217" t="inlineStr"/>
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -13979,7 +13979,7 @@
       <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -14033,7 +14033,7 @@
         </is>
       </c>
       <c r="N219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -14077,7 +14077,7 @@
       <c r="L220" t="inlineStr"/>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14157,7 +14157,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>formation energy per atom</t>
+          <t>chemsys</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -23781,7 +23781,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>formation energy per atom</t>
+          <t>chemsys</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -23841,7 +23841,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -23895,7 +23895,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -23939,7 +23939,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -23993,7 +23993,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -24037,7 +24037,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -24091,7 +24091,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -24145,7 +24145,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -24199,7 +24199,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -24253,7 +24253,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -24307,7 +24307,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -24415,7 +24415,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -24469,7 +24469,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -24523,7 +24523,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -24567,7 +24567,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -24675,7 +24675,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -24729,7 +24729,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -24783,7 +24783,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -24891,7 +24891,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -24945,7 +24945,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -24999,7 +24999,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -25053,7 +25053,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -25107,7 +25107,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -25161,7 +25161,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -25215,7 +25215,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -25269,7 +25269,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -25313,7 +25313,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -25411,7 +25411,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -25465,7 +25465,7 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -25519,7 +25519,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -25563,7 +25563,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -25607,7 +25607,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -25651,7 +25651,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -25695,7 +25695,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -25803,7 +25803,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -25847,7 +25847,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -25901,7 +25901,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -25955,7 +25955,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -25999,7 +25999,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -26053,7 +26053,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -26107,7 +26107,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -26161,7 +26161,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -26215,7 +26215,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -26269,7 +26269,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -26313,7 +26313,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -26367,7 +26367,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -26475,7 +26475,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -26529,7 +26529,7 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -26583,7 +26583,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -26637,7 +26637,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -26681,7 +26681,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -26833,7 +26833,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -26941,7 +26941,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -26985,7 +26985,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -27039,7 +27039,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -27093,7 +27093,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -27147,7 +27147,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -27201,7 +27201,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -27255,7 +27255,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -27299,7 +27299,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -27353,7 +27353,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -27407,7 +27407,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -27451,7 +27451,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -27495,7 +27495,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -27539,7 +27539,7 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -27583,7 +27583,7 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -27627,7 +27627,7 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -27681,7 +27681,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -27735,7 +27735,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -27789,7 +27789,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -27843,7 +27843,7 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -27897,7 +27897,7 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -27951,7 +27951,7 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -27995,7 +27995,7 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -28049,7 +28049,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -28103,7 +28103,7 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -28157,7 +28157,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -28211,7 +28211,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -28265,7 +28265,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -28309,7 +28309,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -28363,7 +28363,7 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -28417,7 +28417,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -28461,7 +28461,7 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -28505,7 +28505,7 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -28549,7 +28549,7 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -28593,7 +28593,7 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -28637,7 +28637,7 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -28691,7 +28691,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -28735,7 +28735,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -28789,7 +28789,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -28833,7 +28833,7 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -28941,7 +28941,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -28985,7 +28985,7 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -29039,7 +29039,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -29093,7 +29093,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -29137,7 +29137,7 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -29191,7 +29191,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -29245,7 +29245,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -29289,7 +29289,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -29343,7 +29343,7 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -29387,7 +29387,7 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -29441,7 +29441,7 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -29485,7 +29485,7 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -29529,7 +29529,7 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -29573,7 +29573,7 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -29617,7 +29617,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -29661,7 +29661,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -29705,7 +29705,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -29749,7 +29749,7 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -29803,7 +29803,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -29857,7 +29857,7 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -29901,7 +29901,7 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -29955,7 +29955,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -30009,7 +30009,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -30063,7 +30063,7 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
@@ -30117,7 +30117,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -30171,7 +30171,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -30225,7 +30225,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -30279,7 +30279,7 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -30323,7 +30323,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -30367,7 +30367,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -30411,7 +30411,7 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -30455,7 +30455,7 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -30499,7 +30499,7 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -30543,7 +30543,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -30587,7 +30587,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -30631,7 +30631,7 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -30685,7 +30685,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -30729,7 +30729,7 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -30783,7 +30783,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -30837,7 +30837,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -30881,7 +30881,7 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -30935,7 +30935,7 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -30989,7 +30989,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -31043,7 +31043,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -31097,7 +31097,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
@@ -31151,7 +31151,7 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -31205,7 +31205,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
@@ -31259,7 +31259,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -31313,7 +31313,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -31421,7 +31421,7 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -31465,7 +31465,7 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -31519,7 +31519,7 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -31573,7 +31573,7 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
@@ -31617,7 +31617,7 @@
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -31661,7 +31661,7 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -31705,7 +31705,7 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -31749,7 +31749,7 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -31803,7 +31803,7 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -31857,7 +31857,7 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -31901,7 +31901,7 @@
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -31955,7 +31955,7 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -31999,7 +31999,7 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -32043,7 +32043,7 @@
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -32097,7 +32097,7 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -32151,7 +32151,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -32195,7 +32195,7 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -32249,7 +32249,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -32303,7 +32303,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -32347,7 +32347,7 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -32401,7 +32401,7 @@
         </is>
       </c>
       <c r="N172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -32455,7 +32455,7 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -32499,7 +32499,7 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -32553,7 +32553,7 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -32607,7 +32607,7 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -32651,7 +32651,7 @@
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -32705,7 +32705,7 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -32759,7 +32759,7 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -32803,7 +32803,7 @@
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -32857,7 +32857,7 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -32911,7 +32911,7 @@
         </is>
       </c>
       <c r="N182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -32955,7 +32955,7 @@
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -33035,7 +33035,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>formation energy per atom</t>
+          <t>chemsys</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -33095,7 +33095,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -33139,7 +33139,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -33193,7 +33193,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -33237,7 +33237,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -33291,7 +33291,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -33345,7 +33345,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -33399,7 +33399,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -33443,7 +33443,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -33487,7 +33487,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -33531,7 +33531,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -33585,7 +33585,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -33639,7 +33639,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -33683,7 +33683,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -33737,7 +33737,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -33791,7 +33791,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -33845,7 +33845,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -33889,7 +33889,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -33943,7 +33943,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -33997,7 +33997,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -34051,7 +34051,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -34105,7 +34105,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -34159,7 +34159,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -34213,7 +34213,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -34267,7 +34267,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -34321,7 +34321,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -34375,7 +34375,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -34429,7 +34429,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -34483,7 +34483,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -34537,7 +34537,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -34581,7 +34581,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -34635,7 +34635,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -34689,7 +34689,7 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -34743,7 +34743,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -34787,7 +34787,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -34831,7 +34831,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -34875,7 +34875,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -34919,7 +34919,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -34973,7 +34973,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -35027,7 +35027,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -35081,7 +35081,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -35135,7 +35135,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -35189,7 +35189,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -35243,7 +35243,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -35297,7 +35297,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -35351,7 +35351,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -35405,7 +35405,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -35459,7 +35459,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -35513,7 +35513,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -35567,7 +35567,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -35621,7 +35621,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -35675,7 +35675,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -35719,7 +35719,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -35763,7 +35763,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -35817,7 +35817,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -35861,7 +35861,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -35915,7 +35915,7 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -35969,7 +35969,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -36013,7 +36013,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -36067,7 +36067,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -36121,7 +36121,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -36175,7 +36175,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -36219,7 +36219,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -36273,7 +36273,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -36381,7 +36381,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -36435,7 +36435,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -36489,7 +36489,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -36543,7 +36543,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -36597,7 +36597,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -36651,7 +36651,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -36705,7 +36705,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -36759,7 +36759,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -36813,7 +36813,7 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -36867,7 +36867,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -36921,7 +36921,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -36965,7 +36965,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -37019,7 +37019,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -37073,7 +37073,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -37181,7 +37181,7 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -37235,7 +37235,7 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -37289,7 +37289,7 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -37343,7 +37343,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -37397,7 +37397,7 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -37451,7 +37451,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -37505,7 +37505,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -37559,7 +37559,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -37603,7 +37603,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -37657,7 +37657,7 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -37711,7 +37711,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -37765,7 +37765,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -37873,7 +37873,7 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -37981,7 +37981,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -38089,7 +38089,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -38133,7 +38133,7 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -38177,7 +38177,7 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -38221,7 +38221,7 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -38265,7 +38265,7 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -38319,7 +38319,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -38373,7 +38373,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -38417,7 +38417,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -38471,7 +38471,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -38525,7 +38525,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -38569,7 +38569,7 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -38613,7 +38613,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -38657,7 +38657,7 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -38711,7 +38711,7 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -38755,7 +38755,7 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -38799,7 +38799,7 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -38907,7 +38907,7 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -38961,7 +38961,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -39015,7 +39015,7 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -39059,7 +39059,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -39113,7 +39113,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -39167,7 +39167,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -39221,7 +39221,7 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -39275,7 +39275,7 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -39329,7 +39329,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -39383,7 +39383,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -39437,7 +39437,7 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -39491,7 +39491,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -39535,7 +39535,7 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -39589,7 +39589,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -39633,7 +39633,7 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -39731,7 +39731,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -39785,7 +39785,7 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -39839,7 +39839,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -39893,7 +39893,7 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -39937,7 +39937,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -39981,7 +39981,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -40035,7 +40035,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -40089,7 +40089,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -40133,7 +40133,7 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -40177,7 +40177,7 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -40231,7 +40231,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -40285,7 +40285,7 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -40393,7 +40393,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -40447,7 +40447,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -40501,7 +40501,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -40609,7 +40609,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -40663,7 +40663,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -40717,7 +40717,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -40825,7 +40825,7 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -40879,7 +40879,7 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -40923,7 +40923,7 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -40977,7 +40977,7 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -41031,7 +41031,7 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -41139,7 +41139,7 @@
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -41193,7 +41193,7 @@
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -41247,7 +41247,7 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -41355,7 +41355,7 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -41409,7 +41409,7 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -41453,7 +41453,7 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -41497,7 +41497,7 @@
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -41541,7 +41541,7 @@
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -41595,7 +41595,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -41639,7 +41639,7 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -41693,7 +41693,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -41747,7 +41747,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -41801,7 +41801,7 @@
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -41855,7 +41855,7 @@
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -41909,7 +41909,7 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -41953,7 +41953,7 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -41997,7 +41997,7 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -42051,7 +42051,7 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -42105,7 +42105,7 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -42159,7 +42159,7 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -42213,7 +42213,7 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -42267,7 +42267,7 @@
         </is>
       </c>
       <c r="N180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -42321,7 +42321,7 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -42365,7 +42365,7 @@
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -42419,7 +42419,7 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -42473,7 +42473,7 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -42527,7 +42527,7 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -42581,7 +42581,7 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -42635,7 +42635,7 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -42679,7 +42679,7 @@
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/separated regions.xlsx
+++ b/separated regions.xlsx
@@ -14207,7 +14207,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -14261,7 +14261,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -14305,7 +14305,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -14359,7 +14359,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -14413,7 +14413,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -14467,7 +14467,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -14575,7 +14575,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -14629,7 +14629,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -14683,7 +14683,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -14737,7 +14737,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -14791,7 +14791,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -14835,7 +14835,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -14889,7 +14889,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -14933,7 +14933,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -14977,7 +14977,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -15031,7 +15031,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -15075,7 +15075,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -15129,7 +15129,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -15183,7 +15183,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -15281,7 +15281,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -15325,7 +15325,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -15379,7 +15379,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -15433,7 +15433,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -15477,7 +15477,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -15531,7 +15531,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -15585,7 +15585,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -15629,7 +15629,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -15673,7 +15673,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -15717,7 +15717,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -15761,7 +15761,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -15805,7 +15805,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -15849,7 +15849,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -15893,7 +15893,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -15947,7 +15947,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -16001,7 +16001,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -16045,7 +16045,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -16089,7 +16089,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -16143,7 +16143,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -16187,7 +16187,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -16241,7 +16241,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -16295,7 +16295,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -16349,7 +16349,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -16403,7 +16403,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -16457,7 +16457,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -16501,7 +16501,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -16555,7 +16555,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -16599,7 +16599,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -16653,7 +16653,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -16707,7 +16707,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -16761,7 +16761,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -16815,7 +16815,7 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -16859,7 +16859,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -16903,7 +16903,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -16947,7 +16947,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -16991,7 +16991,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -17035,7 +17035,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -17089,7 +17089,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -17143,7 +17143,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -17197,7 +17197,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -17241,7 +17241,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -17295,7 +17295,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -17339,7 +17339,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -17383,7 +17383,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -17427,7 +17427,7 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -17471,7 +17471,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -17515,7 +17515,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -17569,7 +17569,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -17623,7 +17623,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -17785,7 +17785,7 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -17839,7 +17839,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -17893,7 +17893,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -18001,7 +18001,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -18055,7 +18055,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -18099,7 +18099,7 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -18143,7 +18143,7 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -18187,7 +18187,7 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -18241,7 +18241,7 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -18285,7 +18285,7 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -18339,7 +18339,7 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -18393,7 +18393,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -18437,7 +18437,7 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -18491,7 +18491,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -18535,7 +18535,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -18579,7 +18579,7 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -18633,7 +18633,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -18687,7 +18687,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -18741,7 +18741,7 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -18795,7 +18795,7 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -18849,7 +18849,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -18903,7 +18903,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -18957,7 +18957,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -19011,7 +19011,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -19065,7 +19065,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -19119,7 +19119,7 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -19163,7 +19163,7 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -19217,7 +19217,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -19261,7 +19261,7 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -19305,7 +19305,7 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -19359,7 +19359,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -19457,7 +19457,7 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -19511,7 +19511,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -19555,7 +19555,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -19609,7 +19609,7 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -19663,7 +19663,7 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -19707,7 +19707,7 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -19751,7 +19751,7 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -19805,7 +19805,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -19859,7 +19859,7 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -19903,7 +19903,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -19957,7 +19957,7 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -20001,7 +20001,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -20055,7 +20055,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -20109,7 +20109,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -20163,7 +20163,7 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -20207,7 +20207,7 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -20251,7 +20251,7 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -20295,7 +20295,7 @@
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -20339,7 +20339,7 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -20393,7 +20393,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -20447,7 +20447,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -20501,7 +20501,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -20555,7 +20555,7 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -20609,7 +20609,7 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -20653,7 +20653,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -20707,7 +20707,7 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -20761,7 +20761,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -20815,7 +20815,7 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -20859,7 +20859,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -20903,7 +20903,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -20957,7 +20957,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -21001,7 +21001,7 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -21045,7 +21045,7 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -21089,7 +21089,7 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -21143,7 +21143,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -21187,7 +21187,7 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -21241,7 +21241,7 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -21295,7 +21295,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -21349,7 +21349,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -21457,7 +21457,7 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -21511,7 +21511,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -21565,7 +21565,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -21663,7 +21663,7 @@
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -21707,7 +21707,7 @@
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -21751,7 +21751,7 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -21795,7 +21795,7 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -21839,7 +21839,7 @@
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -21893,7 +21893,7 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -21937,7 +21937,7 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -21981,7 +21981,7 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -22025,7 +22025,7 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -22069,7 +22069,7 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -22221,7 +22221,7 @@
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -22265,7 +22265,7 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -22363,7 +22363,7 @@
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -22417,7 +22417,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -22525,7 +22525,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -22579,7 +22579,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -22633,7 +22633,7 @@
         </is>
       </c>
       <c r="N171" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -22677,7 +22677,7 @@
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -22721,7 +22721,7 @@
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -22765,7 +22765,7 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -22809,7 +22809,7 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -22853,7 +22853,7 @@
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -22897,7 +22897,7 @@
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -22941,7 +22941,7 @@
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -22995,7 +22995,7 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -23049,7 +23049,7 @@
         </is>
       </c>
       <c r="N180" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -23103,7 +23103,7 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -23147,7 +23147,7 @@
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -23191,7 +23191,7 @@
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -23245,7 +23245,7 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -23299,7 +23299,7 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -23353,7 +23353,7 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -23407,7 +23407,7 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -23451,7 +23451,7 @@
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -23505,7 +23505,7 @@
         </is>
       </c>
       <c r="N189" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -23559,7 +23559,7 @@
         </is>
       </c>
       <c r="N190" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -23603,7 +23603,7 @@
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -23647,7 +23647,7 @@
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -23701,7 +23701,7 @@
         </is>
       </c>
       <c r="N193" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -23841,7 +23841,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -23895,7 +23895,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -23939,7 +23939,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -23993,7 +23993,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -24037,7 +24037,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -24091,7 +24091,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -24145,7 +24145,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -24199,7 +24199,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -24253,7 +24253,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -24307,7 +24307,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -24415,7 +24415,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -24469,7 +24469,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -24523,7 +24523,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -24567,7 +24567,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -24675,7 +24675,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -24729,7 +24729,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -24783,7 +24783,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -24891,7 +24891,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -24945,7 +24945,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -24999,7 +24999,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -25053,7 +25053,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -25107,7 +25107,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -25161,7 +25161,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -25215,7 +25215,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -25269,7 +25269,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -25313,7 +25313,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -25411,7 +25411,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -25465,7 +25465,7 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -25519,7 +25519,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -25563,7 +25563,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -25607,7 +25607,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -25651,7 +25651,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -25695,7 +25695,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -25803,7 +25803,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -25847,7 +25847,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -25901,7 +25901,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -25955,7 +25955,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -25999,7 +25999,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -26053,7 +26053,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -26107,7 +26107,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -26161,7 +26161,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -26215,7 +26215,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -26269,7 +26269,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -26313,7 +26313,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -26367,7 +26367,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -26475,7 +26475,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -26529,7 +26529,7 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -26583,7 +26583,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -26637,7 +26637,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -26681,7 +26681,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -26833,7 +26833,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -26941,7 +26941,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -26985,7 +26985,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -27039,7 +27039,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -27093,7 +27093,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -27147,7 +27147,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -27201,7 +27201,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -27255,7 +27255,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -27299,7 +27299,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -27353,7 +27353,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -27407,7 +27407,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -27451,7 +27451,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -27495,7 +27495,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -27539,7 +27539,7 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -27583,7 +27583,7 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -27627,7 +27627,7 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -27681,7 +27681,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -27735,7 +27735,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -27789,7 +27789,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -27843,7 +27843,7 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -27897,7 +27897,7 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -27951,7 +27951,7 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -27995,7 +27995,7 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -28049,7 +28049,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -28103,7 +28103,7 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -28157,7 +28157,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -28211,7 +28211,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -28265,7 +28265,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -28309,7 +28309,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -28363,7 +28363,7 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -28417,7 +28417,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -28461,7 +28461,7 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -28505,7 +28505,7 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -28549,7 +28549,7 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -28593,7 +28593,7 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -28637,7 +28637,7 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -28691,7 +28691,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -28735,7 +28735,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -28789,7 +28789,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -28833,7 +28833,7 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -28941,7 +28941,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -28985,7 +28985,7 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -29039,7 +29039,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -29093,7 +29093,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -29137,7 +29137,7 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -29191,7 +29191,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -29245,7 +29245,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
@@ -29289,7 +29289,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -29343,7 +29343,7 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -29387,7 +29387,7 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
@@ -29441,7 +29441,7 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
@@ -29485,7 +29485,7 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
@@ -29529,7 +29529,7 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -29573,7 +29573,7 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -29617,7 +29617,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -29661,7 +29661,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
@@ -29705,7 +29705,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -29749,7 +29749,7 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
@@ -29803,7 +29803,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -29857,7 +29857,7 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -29901,7 +29901,7 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -29955,7 +29955,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -30009,7 +30009,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -30063,7 +30063,7 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
@@ -30117,7 +30117,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -30171,7 +30171,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -30225,7 +30225,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
@@ -30279,7 +30279,7 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
@@ -30323,7 +30323,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -30367,7 +30367,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -30411,7 +30411,7 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -30455,7 +30455,7 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
@@ -30499,7 +30499,7 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -30543,7 +30543,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -30587,7 +30587,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -30631,7 +30631,7 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -30685,7 +30685,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -30729,7 +30729,7 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -30783,7 +30783,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
@@ -30837,7 +30837,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -30881,7 +30881,7 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -30935,7 +30935,7 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -30989,7 +30989,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
@@ -31043,7 +31043,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -31097,7 +31097,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -31151,7 +31151,7 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
@@ -31205,7 +31205,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149">
@@ -31259,7 +31259,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
@@ -31313,7 +31313,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
@@ -31421,7 +31421,7 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
@@ -31465,7 +31465,7 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
@@ -31519,7 +31519,7 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155">
@@ -31573,7 +31573,7 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156">
@@ -31617,7 +31617,7 @@
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157">
@@ -31661,7 +31661,7 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
@@ -31705,7 +31705,7 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
@@ -31749,7 +31749,7 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
@@ -31803,7 +31803,7 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161">
@@ -31857,7 +31857,7 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
@@ -31901,7 +31901,7 @@
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163">
@@ -31955,7 +31955,7 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
@@ -31999,7 +31999,7 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
@@ -32043,7 +32043,7 @@
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
@@ -32097,7 +32097,7 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167">
@@ -32151,7 +32151,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -32195,7 +32195,7 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
@@ -32249,7 +32249,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170">
@@ -32303,7 +32303,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171">
@@ -32347,7 +32347,7 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
@@ -32401,7 +32401,7 @@
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173">
@@ -32455,7 +32455,7 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -32499,7 +32499,7 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175">
@@ -32553,7 +32553,7 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
@@ -32607,7 +32607,7 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177">
@@ -32651,7 +32651,7 @@
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -32705,7 +32705,7 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
@@ -32759,7 +32759,7 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
@@ -32803,7 +32803,7 @@
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
@@ -32857,7 +32857,7 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
@@ -32911,7 +32911,7 @@
         </is>
       </c>
       <c r="N182" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
@@ -32955,7 +32955,7 @@
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -33095,7 +33095,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -33139,7 +33139,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -33193,7 +33193,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -33237,7 +33237,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -33291,7 +33291,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -33345,7 +33345,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -33399,7 +33399,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -33443,7 +33443,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -33487,7 +33487,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -33531,7 +33531,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -33585,7 +33585,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -33639,7 +33639,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -33683,7 +33683,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -33737,7 +33737,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -33791,7 +33791,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -33845,7 +33845,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -33889,7 +33889,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -33943,7 +33943,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -33997,7 +33997,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -34051,7 +34051,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -34105,7 +34105,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -34159,7 +34159,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -34213,7 +34213,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -34267,7 +34267,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -34321,7 +34321,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -34375,7 +34375,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -34429,7 +34429,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -34483,7 +34483,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -34537,7 +34537,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -34581,7 +34581,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -34635,7 +34635,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -34689,7 +34689,7 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -34743,7 +34743,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -34787,7 +34787,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -34831,7 +34831,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -34875,7 +34875,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -34919,7 +34919,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -34973,7 +34973,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -35027,7 +35027,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -35081,7 +35081,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -35135,7 +35135,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -35189,7 +35189,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -35243,7 +35243,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -35297,7 +35297,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -35351,7 +35351,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -35405,7 +35405,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -35459,7 +35459,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -35513,7 +35513,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -35567,7 +35567,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -35621,7 +35621,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -35675,7 +35675,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -35719,7 +35719,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -35763,7 +35763,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -35817,7 +35817,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -35861,7 +35861,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -35915,7 +35915,7 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -35969,7 +35969,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -36013,7 +36013,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -36067,7 +36067,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -36121,7 +36121,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -36175,7 +36175,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -36219,7 +36219,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -36273,7 +36273,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -36381,7 +36381,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -36435,7 +36435,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -36489,7 +36489,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -36543,7 +36543,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -36597,7 +36597,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -36651,7 +36651,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -36705,7 +36705,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -36759,7 +36759,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -36813,7 +36813,7 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -36867,7 +36867,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -36921,7 +36921,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -36965,7 +36965,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -37019,7 +37019,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -37073,7 +37073,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -37181,7 +37181,7 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -37235,7 +37235,7 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -37289,7 +37289,7 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -37343,7 +37343,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -37397,7 +37397,7 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -37451,7 +37451,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -37505,7 +37505,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -37559,7 +37559,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -37603,7 +37603,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -37657,7 +37657,7 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -37711,7 +37711,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -37765,7 +37765,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -37873,7 +37873,7 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -37981,7 +37981,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -38089,7 +38089,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -38133,7 +38133,7 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -38177,7 +38177,7 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -38221,7 +38221,7 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -38265,7 +38265,7 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -38319,7 +38319,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -38373,7 +38373,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -38417,7 +38417,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -38471,7 +38471,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -38525,7 +38525,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -38569,7 +38569,7 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -38613,7 +38613,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -38657,7 +38657,7 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -38711,7 +38711,7 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -38755,7 +38755,7 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -38799,7 +38799,7 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -38907,7 +38907,7 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -38961,7 +38961,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -39015,7 +39015,7 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -39059,7 +39059,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -39113,7 +39113,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -39167,7 +39167,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -39221,7 +39221,7 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -39275,7 +39275,7 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -39329,7 +39329,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -39383,7 +39383,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -39437,7 +39437,7 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
@@ -39491,7 +39491,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -39535,7 +39535,7 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -39589,7 +39589,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -39633,7 +39633,7 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -39731,7 +39731,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -39785,7 +39785,7 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -39839,7 +39839,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -39893,7 +39893,7 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -39937,7 +39937,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -39981,7 +39981,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -40035,7 +40035,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -40089,7 +40089,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -40133,7 +40133,7 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -40177,7 +40177,7 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -40231,7 +40231,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -40285,7 +40285,7 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -40393,7 +40393,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -40447,7 +40447,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -40501,7 +40501,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -40609,7 +40609,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
@@ -40663,7 +40663,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -40717,7 +40717,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -40825,7 +40825,7 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -40879,7 +40879,7 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -40923,7 +40923,7 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -40977,7 +40977,7 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
@@ -41031,7 +41031,7 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -41139,7 +41139,7 @@
         </is>
       </c>
       <c r="N158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -41193,7 +41193,7 @@
         </is>
       </c>
       <c r="N159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -41247,7 +41247,7 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -41355,7 +41355,7 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -41409,7 +41409,7 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -41453,7 +41453,7 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -41497,7 +41497,7 @@
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -41541,7 +41541,7 @@
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -41595,7 +41595,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -41639,7 +41639,7 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -41693,7 +41693,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -41747,7 +41747,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -41801,7 +41801,7 @@
         </is>
       </c>
       <c r="N171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -41855,7 +41855,7 @@
         </is>
       </c>
       <c r="N172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -41909,7 +41909,7 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -41953,7 +41953,7 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -41997,7 +41997,7 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -42051,7 +42051,7 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -42105,7 +42105,7 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -42159,7 +42159,7 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -42213,7 +42213,7 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -42267,7 +42267,7 @@
         </is>
       </c>
       <c r="N180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -42321,7 +42321,7 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -42365,7 +42365,7 @@
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -42419,7 +42419,7 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -42473,7 +42473,7 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -42527,7 +42527,7 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -42581,7 +42581,7 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -42635,7 +42635,7 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -42679,7 +42679,7 @@
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/separated regions.xlsx
+++ b/separated regions.xlsx
@@ -545,7 +545,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +589,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1011,7 +1011,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1055,7 +1055,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1099,7 +1099,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1143,7 +1143,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1187,7 +1187,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1231,7 +1231,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1383,7 +1383,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1427,7 +1427,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1471,7 +1471,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1515,7 +1515,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1721,7 +1721,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1765,7 +1765,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1863,7 +1863,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>mp-998627</t>
+          <t>mp-1040471</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -2015,7 +2015,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -2059,7 +2059,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2157,7 +2157,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2201,7 +2201,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2407,7 +2407,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2451,7 +2451,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2711,7 +2711,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2755,7 +2755,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2853,7 +2853,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -2897,7 +2897,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3189,7 +3189,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3233,7 +3233,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3331,7 +3331,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3375,7 +3375,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -3419,7 +3419,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -3517,7 +3517,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -3615,7 +3615,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -3657,11 +3657,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>mp-1178815</t>
+          <t>mp-624691</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.9488</v>
+        <v>1.6463</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -3831,7 +3831,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>mp-1192651</t>
+          <t>mp-19035</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -4199,7 +4199,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -4403,11 +4403,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>mp-1001571</t>
+          <t>mp-1272846</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.0607000000000002</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -4469,7 +4469,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -4513,7 +4513,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -4557,7 +4557,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -4611,7 +4611,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -4655,7 +4655,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -4699,7 +4699,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -4741,11 +4741,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>mp-1228456</t>
+          <t>mp-1366217</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3.1072</v>
+        <v>2.895</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -4795,11 +4795,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>mp-5827</t>
+          <t>mp-3442</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.8285</v>
+        <v>2.2434</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -4851,7 +4851,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4895,7 +4895,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -4939,7 +4939,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -4983,7 +4983,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -5027,7 +5027,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -5071,7 +5071,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -5115,7 +5115,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -5169,7 +5169,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -5213,7 +5213,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -5311,7 +5311,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -5365,7 +5365,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -5463,7 +5463,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -5507,7 +5507,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -5561,7 +5561,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -5615,7 +5615,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -5657,11 +5657,11 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>mp-613384</t>
+          <t>mp-28295</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>3.0912</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -5723,7 +5723,7 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -5831,7 +5831,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -5875,7 +5875,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -5919,7 +5919,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -5963,7 +5963,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -6061,7 +6061,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -6169,7 +6169,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -6223,7 +6223,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -6277,7 +6277,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -6321,7 +6321,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -6365,7 +6365,7 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -6409,7 +6409,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -6463,7 +6463,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -6561,7 +6561,7 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -6615,7 +6615,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -6723,7 +6723,7 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -6777,7 +6777,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -6831,7 +6831,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -6875,7 +6875,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>mp-1079111</t>
+          <t>mp-22246</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -6973,7 +6973,7 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -7081,7 +7081,7 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -7125,7 +7125,7 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -7169,7 +7169,7 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -7223,7 +7223,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -7267,7 +7267,7 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -7365,7 +7365,7 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -7409,7 +7409,7 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -7453,7 +7453,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>mp-770830</t>
+          <t>mp-1178162</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.7472</v>
+        <v>3.1343</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -7561,7 +7561,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -7659,7 +7659,7 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -7713,7 +7713,7 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -7875,7 +7875,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -7983,7 +7983,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -8025,7 +8025,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>mp-1180658</t>
+          <t>mp-760376</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -8091,7 +8091,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -8199,7 +8199,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -8241,11 +8241,11 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>mp-1284950</t>
+          <t>mp-19339</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>0.3559999999999998</v>
+        <v>0</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -8295,11 +8295,11 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>mp-1284950</t>
+          <t>mp-19339</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>0.3559999999999998</v>
+        <v>0</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -8361,7 +8361,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -8415,7 +8415,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
@@ -8513,7 +8513,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
@@ -8665,7 +8665,7 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
@@ -8773,7 +8773,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -8817,7 +8817,7 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
@@ -8969,7 +8969,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -9013,7 +9013,7 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
@@ -9067,7 +9067,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -9163,11 +9163,11 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>mp-5899</t>
+          <t>mp-14254</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>4.353999999999999</v>
+        <v>2.863600000000001</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -9229,7 +9229,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -9283,7 +9283,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
@@ -9391,7 +9391,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -9435,7 +9435,7 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -9479,7 +9479,7 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
@@ -9533,7 +9533,7 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
@@ -9577,7 +9577,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -9631,7 +9631,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>mp-1078668</t>
+          <t>mp-974108</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -9685,7 +9685,7 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -9729,7 +9729,7 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
@@ -9773,7 +9773,7 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -9817,7 +9817,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -9913,11 +9913,11 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>mp-1106215</t>
+          <t>mp-20459</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.316</v>
+        <v>1.813</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -9979,7 +9979,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -10033,7 +10033,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
@@ -10141,7 +10141,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -10185,7 +10185,7 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -10229,7 +10229,7 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -10273,7 +10273,7 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -10381,7 +10381,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -10435,7 +10435,7 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
@@ -10489,7 +10489,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149">
@@ -10543,7 +10543,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
@@ -10597,7 +10597,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -10651,7 +10651,7 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
@@ -10693,11 +10693,11 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>mp-1076534</t>
+          <t>mp-3033</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.0024</v>
+        <v>3.5412</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
@@ -10747,11 +10747,11 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>mp-1187025</t>
+          <t>mp-7405</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>4.0771</v>
+        <v>4.861399999999999</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
@@ -10803,7 +10803,7 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155">
@@ -10857,7 +10857,7 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156">
@@ -10911,7 +10911,7 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157">
@@ -10965,7 +10965,7 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
@@ -11019,7 +11019,7 @@
         </is>
       </c>
       <c r="N158" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
@@ -11063,7 +11063,7 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
@@ -11107,7 +11107,7 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161">
@@ -11151,7 +11151,7 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163">
@@ -11249,7 +11249,7 @@
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
@@ -11357,7 +11357,7 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>mp-762506</t>
+          <t>mp-1101421</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -11411,7 +11411,7 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167">
@@ -11455,7 +11455,7 @@
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -11509,7 +11509,7 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
@@ -11563,7 +11563,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170">
@@ -11617,7 +11617,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="N171" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
@@ -11725,7 +11725,7 @@
         </is>
       </c>
       <c r="N172" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>mp-647158</t>
+          <t>mp-1179320</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>3.3579</v>
+        <v>3.3726</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -11821,11 +11821,11 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>mp-551830</t>
+          <t>mp-776018</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.787</v>
+        <v>1.7362</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175">
@@ -11877,7 +11877,7 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
@@ -11921,7 +11921,7 @@
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177">
@@ -11975,7 +11975,7 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -12029,7 +12029,7 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
@@ -12073,7 +12073,7 @@
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
@@ -12117,7 +12117,7 @@
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
@@ -12161,7 +12161,7 @@
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
@@ -12215,7 +12215,7 @@
         </is>
       </c>
       <c r="N182" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
@@ -12269,7 +12269,7 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
@@ -12313,7 +12313,7 @@
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
@@ -12357,7 +12357,7 @@
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
@@ -12411,7 +12411,7 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
@@ -12455,7 +12455,7 @@
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188">
@@ -12509,7 +12509,7 @@
         </is>
       </c>
       <c r="N188" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189">
@@ -12553,7 +12553,7 @@
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190">
@@ -12607,7 +12607,7 @@
         </is>
       </c>
       <c r="N190" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
@@ -12649,7 +12649,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>mp-18001</t>
+          <t>mp-998845</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -12661,7 +12661,7 @@
         </is>
       </c>
       <c r="N191" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192">
@@ -12705,7 +12705,7 @@
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193">
@@ -12749,7 +12749,7 @@
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194">
@@ -12803,7 +12803,7 @@
         </is>
       </c>
       <c r="N194" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
@@ -12847,7 +12847,7 @@
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
@@ -12901,7 +12901,7 @@
         </is>
       </c>
       <c r="N196" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197">
@@ -12945,7 +12945,7 @@
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198">
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="N198" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199">
@@ -13043,7 +13043,7 @@
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200">
@@ -13087,7 +13087,7 @@
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201">
@@ -13131,7 +13131,7 @@
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202">
@@ -13175,7 +13175,7 @@
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203">
@@ -13219,7 +13219,7 @@
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204">
@@ -13273,7 +13273,7 @@
         </is>
       </c>
       <c r="N204" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205">
@@ -13315,7 +13315,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>mp-758371</t>
+          <t>mp-1188667</t>
         </is>
       </c>
       <c r="L205" t="n">
@@ -13327,7 +13327,7 @@
         </is>
       </c>
       <c r="N205" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206">
@@ -13369,11 +13369,11 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>mp-676312</t>
+          <t>mp-937870</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>0.3571</v>
+        <v>0</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         </is>
       </c>
       <c r="N206" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207">
@@ -13435,7 +13435,7 @@
         </is>
       </c>
       <c r="N207" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208">
@@ -13489,7 +13489,7 @@
         </is>
       </c>
       <c r="N208" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209">
@@ -13543,7 +13543,7 @@
         </is>
       </c>
       <c r="N209" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
@@ -13597,7 +13597,7 @@
         </is>
       </c>
       <c r="N210" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211">
@@ -13651,7 +13651,7 @@
         </is>
       </c>
       <c r="N211" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212">
@@ -13695,7 +13695,7 @@
       <c r="L212" t="inlineStr"/>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213">
@@ -13739,7 +13739,7 @@
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
@@ -13793,7 +13793,7 @@
         </is>
       </c>
       <c r="N214" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215">
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="N215" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216">
@@ -13891,7 +13891,7 @@
       <c r="L216" t="inlineStr"/>
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217">
@@ -13935,7 +13935,7 @@
       <c r="L217" t="inlineStr"/>
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218">
@@ -13979,7 +13979,7 @@
       <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219">
@@ -14033,7 +14033,7 @@
         </is>
       </c>
       <c r="N219" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220">
@@ -14077,7 +14077,7 @@
       <c r="L220" t="inlineStr"/>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -15225,7 +15225,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>mp-20530</t>
+          <t>mp-780712</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -15519,7 +15519,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>mp-18769</t>
+          <t>mp-22593</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -16337,7 +16337,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>mp-755572</t>
+          <t>mp-1078341</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -17665,11 +17665,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>mp-5246</t>
+          <t>mp-4342</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.0585</v>
+        <v>1.476</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -17881,11 +17881,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>mp-1076633</t>
+          <t>mp-18815</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>0.2186000000000003</v>
+        <v>3.046</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -17935,11 +17935,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>mp-5304</t>
+          <t>mp-780422</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.4924</v>
+        <v>4.403700000000001</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -17989,11 +17989,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>mp-19357</t>
+          <t>mp-19281</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1.913800000000001</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>mp-19350</t>
+          <t>mp-19053</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -18891,11 +18891,11 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>mp-4699</t>
+          <t>mp-754818</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.5313</v>
+        <v>2.7139</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -19053,11 +19053,11 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>mp-763901</t>
+          <t>mp-555665</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.9798</v>
+        <v>3.0358</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>mp-550781</t>
+          <t>mp-1272815</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -21881,11 +21881,11 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>mp-554811</t>
+          <t>mp-1187389</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.4396</v>
+        <v>0</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
@@ -22165,11 +22165,11 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>mp-1101462</t>
+          <t>mp-977408</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>0.9465000000000005</v>
+        <v>0.1116000000000001</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
@@ -22621,11 +22621,11 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>mp-1187577</t>
+          <t>mp-777295</t>
         </is>
       </c>
       <c r="L171" t="n">
-        <v>1.9289</v>
+        <v>2.4448</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>mp-753992</t>
+          <t>mp-1273356</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -23841,7 +23841,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -23895,7 +23895,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -23939,7 +23939,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -23993,7 +23993,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -24037,7 +24037,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -24091,7 +24091,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -24145,7 +24145,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -24199,7 +24199,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -24253,7 +24253,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>mp-757501</t>
+          <t>mp-675227</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.8679000000000001</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -24415,7 +24415,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -24457,7 +24457,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>mp-3597</t>
+          <t>mp-5773</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -24469,7 +24469,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -24523,7 +24523,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -24567,7 +24567,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -24609,7 +24609,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>mp-1399298</t>
+          <t>mp-1368304</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -24675,7 +24675,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -24729,7 +24729,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -24771,11 +24771,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>mp-1017467</t>
+          <t>mp-19201</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.4685999999999999</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -24783,7 +24783,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -24825,7 +24825,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>mp-1193602</t>
+          <t>mp-1078659</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -24891,7 +24891,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -24945,7 +24945,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -24999,7 +24999,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -25053,7 +25053,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -25107,7 +25107,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -25161,7 +25161,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -25215,7 +25215,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -25269,7 +25269,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -25313,7 +25313,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -25411,7 +25411,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -25465,7 +25465,7 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -25519,7 +25519,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -25563,7 +25563,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -25607,7 +25607,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -25651,7 +25651,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -25695,7 +25695,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -25803,7 +25803,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -25847,7 +25847,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -25901,7 +25901,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -25955,7 +25955,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -25999,7 +25999,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -26053,7 +26053,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -26107,7 +26107,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -26161,7 +26161,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -26215,7 +26215,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -26269,7 +26269,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -26313,7 +26313,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>mp-1212757</t>
+          <t>mp-1075975</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -26367,7 +26367,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -26475,7 +26475,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -26529,7 +26529,7 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -26583,7 +26583,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -26637,7 +26637,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -26681,7 +26681,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -26833,7 +26833,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -26941,7 +26941,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -26985,7 +26985,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -27039,7 +27039,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -27093,7 +27093,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -27147,7 +27147,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -27201,7 +27201,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -27255,7 +27255,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -27299,7 +27299,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -27341,11 +27341,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>mp-1193069</t>
+          <t>mp-22081</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>0.4942000000000002</v>
+        <v>0.4351000000000002</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -27353,7 +27353,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -27407,7 +27407,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -27451,7 +27451,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -27495,7 +27495,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -27539,7 +27539,7 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -27583,7 +27583,7 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -27627,7 +27627,7 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -27681,7 +27681,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -27735,7 +27735,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -27789,7 +27789,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -27843,7 +27843,7 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -27885,11 +27885,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>mp-1504268</t>
+          <t>mp-1181307</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>0.9398</v>
+        <v>0</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -27897,7 +27897,7 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -27939,11 +27939,11 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>mp-605340</t>
+          <t>mp-1181002</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.4672</v>
+        <v>1.2424</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -27995,7 +27995,7 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -28037,11 +28037,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>mp-1205375</t>
+          <t>mp-1272373</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.5803000000000003</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -28049,7 +28049,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -28103,7 +28103,7 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -28157,7 +28157,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -28211,7 +28211,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -28265,7 +28265,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -28309,7 +28309,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -28363,7 +28363,7 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -28417,7 +28417,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -28461,7 +28461,7 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -28505,7 +28505,7 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -28549,7 +28549,7 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -28593,7 +28593,7 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -28637,7 +28637,7 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -28691,7 +28691,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -28735,7 +28735,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -28777,11 +28777,11 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>mp-558920</t>
+          <t>mp-4748</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.4364</v>
+        <v>1.8238</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -28833,7 +28833,7 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -28941,7 +28941,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -28985,7 +28985,7 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -29027,11 +29027,11 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>mp-1182197</t>
+          <t>mp-20852</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1.898</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -29039,7 +29039,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -29093,7 +29093,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -29137,7 +29137,7 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -29179,7 +29179,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>mp-755569</t>
+          <t>mp-1178420</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -29191,7 +29191,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -29245,7 +29245,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -29289,7 +29289,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -29343,7 +29343,7 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -29387,7 +29387,7 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -29441,7 +29441,7 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -29485,7 +29485,7 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -29529,7 +29529,7 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -29573,7 +29573,7 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -29617,7 +29617,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -29661,7 +29661,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -29705,7 +29705,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -29749,7 +29749,7 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -29803,7 +29803,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -29857,7 +29857,7 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -29901,7 +29901,7 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -29955,7 +29955,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -30009,7 +30009,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -30063,7 +30063,7 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -30117,7 +30117,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -30171,7 +30171,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -30225,7 +30225,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -30279,7 +30279,7 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -30323,7 +30323,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -30367,7 +30367,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -30411,7 +30411,7 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -30455,7 +30455,7 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -30499,7 +30499,7 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -30543,7 +30543,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -30587,7 +30587,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -30631,7 +30631,7 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -30673,11 +30673,11 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>mp-1099588</t>
+          <t>mp-20243</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>0.7234999999999996</v>
+        <v>1.0882</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
@@ -30685,7 +30685,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -30729,7 +30729,7 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -30771,7 +30771,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>mp-1075973</t>
+          <t>mp-22203</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -30783,7 +30783,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -30837,7 +30837,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -30881,7 +30881,7 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -30923,11 +30923,11 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>mp-769855</t>
+          <t>mp-1372100</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>0.6795</v>
+        <v>0</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
@@ -30935,7 +30935,7 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -30989,7 +30989,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -31031,7 +31031,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>mp-17097</t>
+          <t>mp-1016848</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -31043,7 +31043,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -31097,7 +31097,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -31151,7 +31151,7 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -31193,7 +31193,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>mp-22534</t>
+          <t>mp-1179112</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -31205,7 +31205,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -31259,7 +31259,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -31313,7 +31313,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -31421,7 +31421,7 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -31465,7 +31465,7 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -31519,7 +31519,7 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -31573,7 +31573,7 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -31617,7 +31617,7 @@
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -31661,7 +31661,7 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -31705,7 +31705,7 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -31749,7 +31749,7 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -31791,11 +31791,11 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>mp-770614</t>
+          <t>mp-756464</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>0.1429999999999998</v>
+        <v>0</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -31857,7 +31857,7 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -31901,7 +31901,7 @@
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -31955,7 +31955,7 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -31999,7 +31999,7 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -32043,7 +32043,7 @@
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -32097,7 +32097,7 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -32151,7 +32151,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -32195,7 +32195,7 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -32237,11 +32237,11 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>mp-554211</t>
+          <t>mp-554270</t>
         </is>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>0.3708</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -32303,7 +32303,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -32347,7 +32347,7 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -32401,7 +32401,7 @@
         </is>
       </c>
       <c r="N172" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -32455,7 +32455,7 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -32499,7 +32499,7 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -32553,7 +32553,7 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -32607,7 +32607,7 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -32651,7 +32651,7 @@
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -32693,11 +32693,11 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>mp-1330514</t>
+          <t>mp-22668</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>0.0072999999999998</v>
+        <v>0</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -32747,11 +32747,11 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>mp-1275986</t>
+          <t>mp-1376289</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>1.3141</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -32803,7 +32803,7 @@
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -32857,7 +32857,7 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -32911,7 +32911,7 @@
         </is>
       </c>
       <c r="N182" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -32955,7 +32955,7 @@
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -33083,11 +33083,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>mp-1418444</t>
+          <t>mp-1343327</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.0480999999999998</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -33139,7 +33139,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -33193,7 +33193,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -33237,7 +33237,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -33291,7 +33291,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -33345,7 +33345,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -33399,7 +33399,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -33443,7 +33443,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -33487,7 +33487,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -33531,7 +33531,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -33585,7 +33585,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -33627,11 +33627,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>mp-5663</t>
+          <t>mp-3316</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.299</v>
+        <v>2.2112</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -33683,7 +33683,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -33737,7 +33737,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -33791,7 +33791,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -33845,7 +33845,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -33889,7 +33889,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -33943,7 +33943,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -33985,11 +33985,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>mp-20991</t>
+          <t>mp-561598</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0.0272999999999998</v>
+        <v>0</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -33997,7 +33997,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -34051,7 +34051,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -34105,7 +34105,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -34147,11 +34147,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>mp-1178513</t>
+          <t>mp-3163</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0.6650999999999998</v>
+        <v>0.3723999999999998</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -34159,7 +34159,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -34201,11 +34201,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>mp-1178513</t>
+          <t>mp-3163</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>0.6650999999999998</v>
+        <v>0.3723999999999998</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -34255,7 +34255,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>mp-1182811</t>
+          <t>mp-5735</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -34267,7 +34267,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -34321,7 +34321,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -34363,11 +34363,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>mp-504715</t>
+          <t>mp-5777</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2.293</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -34417,11 +34417,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>mp-504715</t>
+          <t>mp-5777</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2.293</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -34429,7 +34429,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -34471,11 +34471,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>mp-504715</t>
+          <t>mp-5777</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>2.293</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -34483,7 +34483,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -34537,7 +34537,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -34581,7 +34581,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -34635,7 +34635,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -34689,7 +34689,7 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -34743,7 +34743,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -34787,7 +34787,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -34831,7 +34831,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -34875,7 +34875,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -34919,7 +34919,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -34973,7 +34973,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -35027,7 +35027,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -35081,7 +35081,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -35123,11 +35123,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>mp-1181886</t>
+          <t>mp-17552</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.6218</v>
+        <v>4.7336</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -35135,7 +35135,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -35189,7 +35189,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -35231,11 +35231,11 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>mp-5827</t>
+          <t>mp-3442</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.8285</v>
+        <v>2.2434</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -35243,7 +35243,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -35297,7 +35297,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -35351,7 +35351,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -35393,11 +35393,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>mp-7588</t>
+          <t>mp-1016903</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.301</v>
+        <v>0.1022000000000007</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -35405,7 +35405,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -35459,7 +35459,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -35513,7 +35513,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -35555,11 +35555,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>mp-1179263</t>
+          <t>mp-13641</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.4505</v>
+        <v>2.9057</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -35567,7 +35567,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -35621,7 +35621,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -35675,7 +35675,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -35719,7 +35719,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -35763,7 +35763,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -35817,7 +35817,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -35861,7 +35861,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -35903,11 +35903,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>mp-756630</t>
+          <t>mp-984723</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5.723000000000001</v>
+        <v>2.948300000000001</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -35915,7 +35915,7 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -35969,7 +35969,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -36013,7 +36013,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -36067,7 +36067,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -36121,7 +36121,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -36175,7 +36175,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -36219,7 +36219,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -36261,11 +36261,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>mp-756458</t>
+          <t>mp-754184</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>5.803000000000001</v>
+        <v>3.5604</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -36273,7 +36273,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -36315,11 +36315,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>mp-1213082</t>
+          <t>mp-1213088</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.6631</v>
+        <v>2.9001</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -36369,11 +36369,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>mp-772217</t>
+          <t>mp-754208</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.956</v>
+        <v>2.5532</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -36435,7 +36435,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -36489,7 +36489,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -36531,7 +36531,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>mp-1184304</t>
+          <t>mp-1212980</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -36543,7 +36543,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -36597,7 +36597,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -36651,7 +36651,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -36693,11 +36693,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>mp-771055</t>
+          <t>mp-1178354</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>0.3877000000000006</v>
+        <v>0.4662999999999995</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -36705,7 +36705,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -36759,7 +36759,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -36813,7 +36813,7 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -36867,7 +36867,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -36921,7 +36921,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -36965,7 +36965,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -37019,7 +37019,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -37073,7 +37073,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -37181,7 +37181,7 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -37235,7 +37235,7 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -37289,7 +37289,7 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -37331,11 +37331,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>mp-982040</t>
+          <t>mp-29799</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.4914</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -37343,7 +37343,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -37397,7 +37397,7 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -37451,7 +37451,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -37505,7 +37505,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -37559,7 +37559,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -37603,7 +37603,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -37657,7 +37657,7 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -37711,7 +37711,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -37753,11 +37753,11 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>mp-5304</t>
+          <t>mp-780422</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.4924</v>
+        <v>4.403700000000001</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -37765,7 +37765,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -37873,7 +37873,7 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -37981,7 +37981,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -38089,7 +38089,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -38133,7 +38133,7 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -38177,7 +38177,7 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -38221,7 +38221,7 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -38265,7 +38265,7 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -38319,7 +38319,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -38361,11 +38361,11 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>mp-768505</t>
+          <t>mp-755792</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.8828</v>
+        <v>3.6376</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -38373,7 +38373,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -38417,7 +38417,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -38471,7 +38471,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -38525,7 +38525,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -38569,7 +38569,7 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -38613,7 +38613,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -38657,7 +38657,7 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -38699,11 +38699,11 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>mp-752755</t>
+          <t>mp-20011</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.7037</v>
+        <v>1.4696</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -38755,7 +38755,7 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -38799,7 +38799,7 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -38907,7 +38907,7 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -38949,11 +38949,11 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>mp-1186316</t>
+          <t>mp-755138</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.6468</v>
+        <v>2.6533</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -38961,7 +38961,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -39015,7 +39015,7 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -39059,7 +39059,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -39113,7 +39113,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -39167,7 +39167,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -39221,7 +39221,7 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -39275,7 +39275,7 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -39329,7 +39329,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -39383,7 +39383,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -39437,7 +39437,7 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -39491,7 +39491,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -39535,7 +39535,7 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -39589,7 +39589,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -39633,7 +39633,7 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -39731,7 +39731,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -39785,7 +39785,7 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -39839,7 +39839,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -39893,7 +39893,7 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -39937,7 +39937,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -39981,7 +39981,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -40035,7 +40035,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -40089,7 +40089,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -40133,7 +40133,7 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -40177,7 +40177,7 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -40231,7 +40231,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -40285,7 +40285,7 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -40393,7 +40393,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -40447,7 +40447,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -40501,7 +40501,7 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -40609,7 +40609,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -40663,7 +40663,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -40705,11 +40705,11 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>mp-12867</t>
+          <t>mp-546973</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.5555</v>
+        <v>0.9698000000000002</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -40759,11 +40759,11 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>mp-12867</t>
+          <t>mp-546973</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.5555</v>
+        <v>0.9698000000000002</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -40813,11 +40813,11 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>mp-551830</t>
+          <t>mp-776018</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>1.787</v>
+        <v>1.7362</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -40879,7 +40879,7 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -40923,7 +40923,7 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -40977,7 +40977,7 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -41019,11 +41019,11 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>mp-613402</t>
+          <t>mp-3323</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>3.214399999999999</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
@@ -41031,7 +41031,7 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -41073,11 +41073,11 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>mp-613402</t>
+          <t>mp-3323</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>3.214399999999999</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -41139,7 +41139,7 @@
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -41193,7 +41193,7 @@
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -41247,7 +41247,7 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -41355,7 +41355,7 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -41409,7 +41409,7 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -41453,7 +41453,7 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -41497,7 +41497,7 @@
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -41541,7 +41541,7 @@
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -41595,7 +41595,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -41639,7 +41639,7 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -41693,7 +41693,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -41735,11 +41735,11 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>mp-756281</t>
+          <t>mp-1101265</t>
         </is>
       </c>
       <c r="L170" t="n">
-        <v>5.7744</v>
+        <v>3.5534</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -41801,7 +41801,7 @@
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -41855,7 +41855,7 @@
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -41909,7 +41909,7 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -41953,7 +41953,7 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -41997,7 +41997,7 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -42039,11 +42039,11 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>mp-7964</t>
+          <t>mp-756214</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.4965</v>
+        <v>4.958600000000001</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
@@ -42051,7 +42051,7 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -42093,11 +42093,11 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>mp-7964</t>
+          <t>mp-756214</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>3.4965</v>
+        <v>4.958600000000001</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -42159,7 +42159,7 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -42213,7 +42213,7 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -42267,7 +42267,7 @@
         </is>
       </c>
       <c r="N180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -42321,7 +42321,7 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -42365,7 +42365,7 @@
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -42407,11 +42407,11 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>mp-1333124</t>
+          <t>mp-1340758</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>0.0055999999999998</v>
+        <v>0</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
@@ -42419,7 +42419,7 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -42473,7 +42473,7 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -42527,7 +42527,7 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -42581,7 +42581,7 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -42635,7 +42635,7 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -42679,7 +42679,7 @@
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/separated regions.xlsx
+++ b/separated regions.xlsx
@@ -563,7 +563,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -615,7 +615,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1101,7 +1101,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1153,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1205,7 +1205,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1257,7 +1257,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1309,7 +1309,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1361,7 +1361,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1537,7 +1537,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1589,7 +1589,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1641,7 +1641,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1693,7 +1693,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1931,7 +1931,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1983,7 +1983,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2097,7 +2097,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2273,7 +2273,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2325,7 +2325,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2439,7 +2439,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2491,7 +2491,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2729,7 +2729,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2781,7 +2781,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -3081,7 +3081,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -3133,7 +3133,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -3247,7 +3247,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -3299,7 +3299,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3633,7 +3633,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3685,7 +3685,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3799,7 +3799,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3851,7 +3851,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -3903,7 +3903,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -4017,7 +4017,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -4131,7 +4131,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -4193,7 +4193,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -4503,7 +4503,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -4803,7 +4803,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -4865,7 +4865,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -4989,7 +4989,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -5165,7 +5165,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -5217,7 +5217,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -5279,7 +5279,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -5331,7 +5331,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -5383,7 +5383,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -5559,7 +5559,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -5611,7 +5611,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -5663,7 +5663,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -5715,7 +5715,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -5767,7 +5767,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -5819,7 +5819,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -5871,7 +5871,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -5933,7 +5933,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -5985,7 +5985,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -6099,7 +6099,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -6161,7 +6161,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -6223,7 +6223,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -6275,7 +6275,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -6327,7 +6327,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -6451,7 +6451,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -6513,7 +6513,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -6637,7 +6637,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -6699,7 +6699,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -6751,7 +6751,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -6803,7 +6803,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -6855,7 +6855,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -6969,7 +6969,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -7093,7 +7093,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -7155,7 +7155,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -7217,7 +7217,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -7269,7 +7269,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -7321,7 +7321,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -7373,7 +7373,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -7549,7 +7549,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -7611,7 +7611,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -7673,7 +7673,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -7797,7 +7797,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -7859,7 +7859,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -7911,7 +7911,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -7973,7 +7973,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -8025,7 +8025,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -8149,7 +8149,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -8201,7 +8201,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -8253,7 +8253,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -8367,7 +8367,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -8429,7 +8429,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -8481,7 +8481,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -8533,7 +8533,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -8585,7 +8585,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -8709,7 +8709,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -8823,7 +8823,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -8885,7 +8885,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -9009,7 +9009,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -9133,7 +9133,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -9195,7 +9195,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -9257,7 +9257,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -9319,7 +9319,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -9381,7 +9381,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -9443,7 +9443,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -9505,7 +9505,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -9567,7 +9567,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -9691,7 +9691,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -9753,7 +9753,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -9805,7 +9805,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -9929,7 +9929,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -9981,7 +9981,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -10043,7 +10043,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -10105,7 +10105,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -10157,7 +10157,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -10219,7 +10219,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -10281,7 +10281,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -10333,7 +10333,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -10385,7 +10385,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -10447,7 +10447,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -10633,7 +10633,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -10695,7 +10695,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -10757,7 +10757,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -10871,7 +10871,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -10923,7 +10923,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -10985,7 +10985,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -11037,7 +11037,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -11099,7 +11099,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -11213,7 +11213,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -11265,7 +11265,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -11317,7 +11317,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -11379,7 +11379,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -11441,7 +11441,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -11503,7 +11503,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -11627,7 +11627,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -11741,7 +11741,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -11793,7 +11793,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -11845,7 +11845,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -11907,7 +11907,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -11969,7 +11969,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
@@ -12031,7 +12031,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -12217,7 +12217,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -12279,7 +12279,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -12341,7 +12341,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -12455,7 +12455,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -12517,7 +12517,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
@@ -12579,7 +12579,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -12641,7 +12641,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -12703,7 +12703,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -12755,7 +12755,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -12807,7 +12807,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -12859,7 +12859,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -12973,7 +12973,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -13035,7 +13035,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -13097,7 +13097,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -13159,7 +13159,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -13211,7 +13211,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -13273,7 +13273,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -13335,7 +13335,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -13397,7 +13397,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -13459,7 +13459,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -13583,7 +13583,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -13645,7 +13645,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -13697,7 +13697,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -13749,7 +13749,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -13811,7 +13811,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -13873,7 +13873,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -13925,7 +13925,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -13977,7 +13977,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -14029,7 +14029,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -14091,7 +14091,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -14153,7 +14153,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -14205,7 +14205,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -14257,7 +14257,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -14319,7 +14319,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -14371,7 +14371,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -14433,7 +14433,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -14485,7 +14485,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -14547,7 +14547,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -14609,7 +14609,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -14661,7 +14661,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -14713,7 +14713,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -14775,7 +14775,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -14827,7 +14827,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -14889,7 +14889,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -14941,7 +14941,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -15003,7 +15003,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -15055,7 +15055,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -15107,7 +15107,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -15159,7 +15159,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -15211,7 +15211,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -15263,7 +15263,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -15325,7 +15325,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -15387,7 +15387,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
@@ -15449,7 +15449,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -15511,7 +15511,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -15573,7 +15573,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -15635,7 +15635,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -15697,7 +15697,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -15759,7 +15759,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -15811,7 +15811,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -15863,7 +15863,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -15925,7 +15925,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -15987,7 +15987,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -16039,7 +16039,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -16091,7 +16091,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -16143,7 +16143,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -16205,7 +16205,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -16257,7 +16257,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -16405,7 +16405,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -16467,7 +16467,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -16519,7 +16519,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -16581,7 +16581,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -16643,7 +16643,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -16705,7 +16705,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -16767,7 +16767,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -16829,7 +16829,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -16891,7 +16891,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -16953,7 +16953,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -17015,7 +17015,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -17129,7 +17129,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -17191,7 +17191,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -17243,7 +17243,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -17295,7 +17295,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -17357,7 +17357,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -17409,7 +17409,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -17533,7 +17533,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -17595,7 +17595,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -17647,7 +17647,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -17699,7 +17699,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -17761,7 +17761,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -17823,7 +17823,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -17875,7 +17875,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -17937,7 +17937,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -17999,7 +17999,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -18051,7 +18051,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -18103,7 +18103,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -18155,7 +18155,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -18207,7 +18207,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -18259,7 +18259,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -18311,7 +18311,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -18363,7 +18363,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -18425,7 +18425,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -18539,7 +18539,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -18591,7 +18591,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -18653,7 +18653,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -18705,7 +18705,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -18767,7 +18767,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -18829,7 +18829,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -18891,7 +18891,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -18953,7 +18953,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -19015,7 +19015,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -19067,7 +19067,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -19129,7 +19129,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -19181,7 +19181,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -19305,7 +19305,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -19429,7 +19429,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -19481,7 +19481,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -19533,7 +19533,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -19585,7 +19585,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -19637,7 +19637,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -19689,7 +19689,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -19751,7 +19751,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -19813,7 +19813,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -19875,7 +19875,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -19927,7 +19927,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -20041,7 +20041,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -20093,7 +20093,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -20145,7 +20145,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -20197,7 +20197,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -20249,7 +20249,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -20311,7 +20311,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -20373,7 +20373,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -20435,7 +20435,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -20497,7 +20497,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -20559,7 +20559,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -20745,7 +20745,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -20869,7 +20869,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -20921,7 +20921,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -20973,7 +20973,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -21025,7 +21025,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -21087,7 +21087,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -21139,7 +21139,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -21201,7 +21201,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -21263,7 +21263,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -21315,7 +21315,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -21429,7 +21429,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -21481,7 +21481,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -21543,7 +21543,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -21605,7 +21605,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -21667,7 +21667,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -21729,7 +21729,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -21791,7 +21791,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -21853,7 +21853,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -21915,7 +21915,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -22039,7 +22039,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -22101,7 +22101,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -22153,7 +22153,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -22215,7 +22215,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -22267,7 +22267,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -22319,7 +22319,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -22381,7 +22381,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -22443,7 +22443,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -22495,7 +22495,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -22557,7 +22557,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -22609,7 +22609,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -22733,7 +22733,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -22785,7 +22785,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -22837,7 +22837,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -22961,7 +22961,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -23013,7 +23013,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -23075,7 +23075,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -23127,7 +23127,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -23189,7 +23189,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -23251,7 +23251,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -23313,7 +23313,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -23365,7 +23365,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -23417,7 +23417,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -23469,7 +23469,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -23521,7 +23521,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -23583,7 +23583,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -23645,7 +23645,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -23769,7 +23769,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -23831,7 +23831,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -23883,7 +23883,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -23945,7 +23945,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -24069,7 +24069,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -24121,7 +24121,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -24173,7 +24173,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -24235,7 +24235,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -24287,7 +24287,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -24339,7 +24339,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -24391,7 +24391,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -24505,7 +24505,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -24629,7 +24629,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -24691,7 +24691,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -24753,7 +24753,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -24815,7 +24815,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -24877,7 +24877,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -24939,7 +24939,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -25001,7 +25001,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -25053,7 +25053,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -25105,7 +25105,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -25157,7 +25157,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -25209,7 +25209,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -25261,7 +25261,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -25323,7 +25323,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -25375,7 +25375,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -25427,7 +25427,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -25479,7 +25479,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -25531,7 +25531,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -25593,7 +25593,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -25655,7 +25655,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -25707,7 +25707,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -25759,7 +25759,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -25873,7 +25873,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -25935,7 +25935,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -25997,7 +25997,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -26059,7 +26059,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -26183,7 +26183,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -26235,7 +26235,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -26287,7 +26287,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -26339,7 +26339,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -26391,7 +26391,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -26443,7 +26443,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -26495,7 +26495,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -26547,7 +26547,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -26609,7 +26609,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -26733,7 +26733,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -26785,7 +26785,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -26837,7 +26837,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -26899,7 +26899,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -26961,7 +26961,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -27023,7 +27023,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -27085,7 +27085,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -27137,7 +27137,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -27199,7 +27199,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -27313,7 +27313,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -27365,7 +27365,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -27427,7 +27427,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27585,7 +27585,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -27647,7 +27647,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -27699,7 +27699,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -27761,7 +27761,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -27813,7 +27813,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -27875,7 +27875,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -27937,7 +27937,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -27999,7 +27999,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -28061,7 +28061,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -28123,7 +28123,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -28185,7 +28185,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -28309,7 +28309,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -28371,7 +28371,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -28423,7 +28423,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -28547,7 +28547,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -28609,7 +28609,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -28671,7 +28671,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -28733,7 +28733,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -28795,7 +28795,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -28857,7 +28857,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -28919,7 +28919,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -28981,7 +28981,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -29043,7 +29043,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -29105,7 +29105,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -29167,7 +29167,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -29229,7 +29229,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -29281,7 +29281,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -29343,7 +29343,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -29395,7 +29395,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -29457,7 +29457,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -29519,7 +29519,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -29571,7 +29571,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -29623,7 +29623,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -29675,7 +29675,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -29727,7 +29727,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -29789,7 +29789,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -29851,7 +29851,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -29903,7 +29903,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -29965,7 +29965,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -30027,7 +30027,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -30079,7 +30079,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -30203,7 +30203,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -30265,7 +30265,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -30389,7 +30389,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -30441,7 +30441,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -30503,7 +30503,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -30565,7 +30565,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -30627,7 +30627,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -30689,7 +30689,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -30751,7 +30751,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -30813,7 +30813,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -30865,7 +30865,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -30927,7 +30927,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -30989,7 +30989,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -31041,7 +31041,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -31103,7 +31103,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -31165,7 +31165,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -31217,7 +31217,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -31279,7 +31279,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -31341,7 +31341,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -31403,7 +31403,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -31465,7 +31465,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -31579,7 +31579,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -31641,7 +31641,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -31703,7 +31703,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -31755,7 +31755,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -31807,7 +31807,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -31859,7 +31859,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -31911,7 +31911,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -31963,7 +31963,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -32025,7 +32025,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -32149,7 +32149,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -32211,7 +32211,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -32273,7 +32273,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -32335,7 +32335,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -32387,7 +32387,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -32449,7 +32449,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -32511,7 +32511,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -32573,7 +32573,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -32697,7 +32697,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -32749,7 +32749,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -32811,7 +32811,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -32873,7 +32873,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -32925,7 +32925,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -32977,7 +32977,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -33029,7 +33029,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -33081,7 +33081,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -33133,7 +33133,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -33195,7 +33195,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -33247,7 +33247,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -33361,7 +33361,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -33423,7 +33423,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -33485,7 +33485,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -33537,7 +33537,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -33599,7 +33599,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -33661,7 +33661,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -33713,7 +33713,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -33775,7 +33775,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -33837,7 +33837,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -33889,7 +33889,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -33951,7 +33951,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -34003,7 +34003,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -34065,7 +34065,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -34117,7 +34117,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -34169,7 +34169,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -34221,7 +34221,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -34273,7 +34273,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -34325,7 +34325,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -34377,7 +34377,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -34429,7 +34429,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -34491,7 +34491,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -34553,7 +34553,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -34605,7 +34605,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -34667,7 +34667,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -34729,7 +34729,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -34791,7 +34791,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -34853,7 +34853,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -34915,7 +34915,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -34977,7 +34977,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -35039,7 +35039,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -35091,7 +35091,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -35143,7 +35143,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -35195,7 +35195,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -35247,7 +35247,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -35299,7 +35299,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -35351,7 +35351,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -35403,7 +35403,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -35455,7 +35455,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -35517,7 +35517,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -35569,7 +35569,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -35631,7 +35631,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -35693,7 +35693,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -35745,7 +35745,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -35807,7 +35807,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -35869,7 +35869,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -35931,7 +35931,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -35993,7 +35993,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -36055,7 +36055,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -36179,7 +36179,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -36241,7 +36241,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -36303,7 +36303,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -36365,7 +36365,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -36417,7 +36417,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -36479,7 +36479,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -36541,7 +36541,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -36593,7 +36593,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -36645,7 +36645,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -36697,7 +36697,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -36749,7 +36749,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -36873,7 +36873,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -36925,7 +36925,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -36987,7 +36987,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -37039,7 +37039,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -37091,7 +37091,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -37153,7 +37153,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -37215,7 +37215,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -37267,7 +37267,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -37329,7 +37329,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -37391,7 +37391,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -37443,7 +37443,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -37505,7 +37505,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -37567,7 +37567,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -37619,7 +37619,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -37681,7 +37681,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -37743,7 +37743,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -37795,7 +37795,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -37857,7 +37857,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -37919,7 +37919,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -37971,7 +37971,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -38033,7 +38033,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -38095,7 +38095,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -38147,7 +38147,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/separated regions.xlsx
+++ b/separated regions.xlsx
@@ -2147,7 +2147,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>mp-998627</t>
+          <t>mp-1040471</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3633,7 +3633,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3685,7 +3685,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3799,7 +3799,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3851,7 +3851,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -3903,7 +3903,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -4017,7 +4017,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -4131,7 +4131,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -4181,11 +4181,11 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>mp-1178815</t>
+          <t>mp-624691</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.9488</v>
+        <v>1.6463</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>mp-1192651</t>
+          <t>mp-19035</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -4503,7 +4503,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -4803,7 +4803,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -4865,7 +4865,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -4989,7 +4989,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -5039,11 +5039,11 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>mp-1001571</t>
+          <t>mp-1272846</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.0607000000000002</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -5165,7 +5165,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -5217,7 +5217,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -5279,7 +5279,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -5331,7 +5331,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -5383,7 +5383,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -5433,11 +5433,11 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>mp-1228456</t>
+          <t>mp-1366217</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.1072</v>
+        <v>2.895</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -5495,11 +5495,11 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>mp-5827</t>
+          <t>mp-3442</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>1.8285</v>
+        <v>2.2434</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -5559,7 +5559,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -5611,7 +5611,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -5663,7 +5663,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -5715,7 +5715,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -5767,7 +5767,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -5819,7 +5819,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -5871,7 +5871,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -5933,7 +5933,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -5985,7 +5985,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -6099,7 +6099,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -6161,7 +6161,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -6223,7 +6223,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -6275,7 +6275,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -6327,7 +6327,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -6451,7 +6451,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -6501,11 +6501,11 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>mp-613384</t>
+          <t>mp-28295</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>3.0912</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -6637,7 +6637,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -6699,7 +6699,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -6751,7 +6751,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -6803,7 +6803,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -6855,7 +6855,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -6969,7 +6969,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -7093,7 +7093,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -7155,7 +7155,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -7217,7 +7217,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -7269,7 +7269,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -7321,7 +7321,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -7373,7 +7373,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -7549,7 +7549,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -7611,7 +7611,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -7673,7 +7673,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -7797,7 +7797,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -7859,7 +7859,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -7911,7 +7911,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>mp-1079111</t>
+          <t>mp-22246</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -7973,7 +7973,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -8025,7 +8025,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -8149,7 +8149,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -8201,7 +8201,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -8253,7 +8253,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -8367,7 +8367,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -8429,7 +8429,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -8481,7 +8481,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -8533,7 +8533,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -8585,7 +8585,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -8635,11 +8635,11 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>mp-770830</t>
+          <t>mp-1178162</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>2.7472</v>
+        <v>3.1343</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -8709,7 +8709,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -8823,7 +8823,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -8885,7 +8885,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -9009,7 +9009,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -9133,7 +9133,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -9195,7 +9195,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>mp-1180658</t>
+          <t>mp-760376</t>
         </is>
       </c>
       <c r="N100" t="n">
@@ -9257,7 +9257,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -9319,7 +9319,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -9381,7 +9381,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -9443,7 +9443,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -9493,11 +9493,11 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>mp-1284950</t>
+          <t>mp-19339</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>0.3559999999999998</v>
+        <v>0</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -9555,11 +9555,11 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>mp-1284950</t>
+          <t>mp-19339</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>0.3559999999999998</v>
+        <v>0</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -9691,7 +9691,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -9753,7 +9753,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
@@ -9805,7 +9805,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -9929,7 +9929,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
@@ -9981,7 +9981,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
@@ -10043,7 +10043,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
@@ -10105,7 +10105,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -10157,7 +10157,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -10219,7 +10219,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -10281,7 +10281,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
@@ -10333,7 +10333,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -10385,7 +10385,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
@@ -10447,7 +10447,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -10559,11 +10559,11 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>mp-5899</t>
+          <t>mp-14254</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>4.353999999999999</v>
+        <v>2.863600000000001</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -10633,7 +10633,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -10695,7 +10695,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -10757,7 +10757,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -10871,7 +10871,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -10923,7 +10923,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
@@ -10985,7 +10985,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
@@ -11037,7 +11037,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -11099,7 +11099,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>mp-1078668</t>
+          <t>mp-974108</t>
         </is>
       </c>
       <c r="N132" t="n">
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -11213,7 +11213,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
@@ -11265,7 +11265,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -11317,7 +11317,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -11379,7 +11379,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -11429,11 +11429,11 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>mp-1106215</t>
+          <t>mp-20459</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>2.316</v>
+        <v>1.813</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -11503,7 +11503,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -11627,7 +11627,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -11741,7 +11741,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -11793,7 +11793,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -11845,7 +11845,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
@@ -11907,7 +11907,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -11969,7 +11969,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -12031,7 +12031,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
@@ -12217,7 +12217,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -12279,7 +12279,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
@@ -12329,11 +12329,11 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>mp-1076534</t>
+          <t>mp-3033</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>2.0024</v>
+        <v>3.5412</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>mp-1187025</t>
+          <t>mp-7405</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>4.0771</v>
+        <v>4.861399999999999</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
@@ -12455,7 +12455,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155">
@@ -12517,7 +12517,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156">
@@ -12579,7 +12579,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157">
@@ -12641,7 +12641,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
@@ -12703,7 +12703,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
@@ -12755,7 +12755,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
@@ -12807,7 +12807,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161">
@@ -12859,7 +12859,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163">
@@ -12973,7 +12973,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
@@ -13035,7 +13035,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
@@ -13097,7 +13097,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
@@ -13147,7 +13147,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>mp-762506</t>
+          <t>mp-1101421</t>
         </is>
       </c>
       <c r="N166" t="n">
@@ -13159,7 +13159,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167">
@@ -13211,7 +13211,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -13273,7 +13273,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
@@ -13335,7 +13335,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170">
@@ -13397,7 +13397,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171">
@@ -13459,7 +13459,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173">
@@ -13571,11 +13571,11 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>mp-647158</t>
+          <t>mp-1179320</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.3579</v>
+        <v>3.3726</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -13633,11 +13633,11 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>mp-551830</t>
+          <t>mp-776018</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>1.787</v>
+        <v>1.7362</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175">
@@ -13697,7 +13697,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
@@ -13749,7 +13749,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177">
@@ -13811,7 +13811,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -13873,7 +13873,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
@@ -13925,7 +13925,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
@@ -13977,7 +13977,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
@@ -14029,7 +14029,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
@@ -14091,7 +14091,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
@@ -14153,7 +14153,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
@@ -14205,7 +14205,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
@@ -14257,7 +14257,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
@@ -14319,7 +14319,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
@@ -14371,7 +14371,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188">
@@ -14433,7 +14433,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189">
@@ -14485,7 +14485,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190">
@@ -14547,7 +14547,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
@@ -14597,7 +14597,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>mp-18001</t>
+          <t>mp-998845</t>
         </is>
       </c>
       <c r="N191" t="n">
@@ -14609,7 +14609,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192">
@@ -14661,7 +14661,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193">
@@ -14713,7 +14713,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194">
@@ -14775,7 +14775,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
@@ -14827,7 +14827,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
@@ -14889,7 +14889,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197">
@@ -14941,7 +14941,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198">
@@ -15003,7 +15003,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199">
@@ -15055,7 +15055,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200">
@@ -15107,7 +15107,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201">
@@ -15159,7 +15159,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202">
@@ -15211,7 +15211,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203">
@@ -15263,7 +15263,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204">
@@ -15325,7 +15325,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205">
@@ -15375,7 +15375,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>mp-758371</t>
+          <t>mp-1188667</t>
         </is>
       </c>
       <c r="N205" t="n">
@@ -15387,7 +15387,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206">
@@ -15437,11 +15437,11 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>mp-676312</t>
+          <t>mp-937870</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>0.3571</v>
+        <v>0</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207">
@@ -15511,7 +15511,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208">
@@ -15573,7 +15573,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209">
@@ -15635,7 +15635,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
@@ -15697,7 +15697,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211">
@@ -15759,7 +15759,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212">
@@ -15811,7 +15811,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213">
@@ -15863,7 +15863,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
@@ -15925,7 +15925,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215">
@@ -15987,7 +15987,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216">
@@ -16039,7 +16039,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217">
@@ -16091,7 +16091,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218">
@@ -16143,7 +16143,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219">
@@ -16205,7 +16205,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220">
@@ -16257,7 +16257,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -16405,7 +16405,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -16467,7 +16467,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -16519,7 +16519,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -16581,7 +16581,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -16643,7 +16643,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -16705,7 +16705,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -16767,7 +16767,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -16829,7 +16829,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -16891,7 +16891,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -16953,7 +16953,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -17015,7 +17015,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -17129,7 +17129,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -17191,7 +17191,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -17243,7 +17243,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -17295,7 +17295,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -17357,7 +17357,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -17409,7 +17409,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -17533,7 +17533,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -17583,7 +17583,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>mp-20530</t>
+          <t>mp-780712</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -17595,7 +17595,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -17647,7 +17647,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -17699,7 +17699,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -17761,7 +17761,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -17823,7 +17823,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -17875,7 +17875,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -17925,7 +17925,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>mp-18769</t>
+          <t>mp-22593</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -17937,7 +17937,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -17999,7 +17999,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -18051,7 +18051,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -18103,7 +18103,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -18155,7 +18155,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -18207,7 +18207,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -18259,7 +18259,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -18311,7 +18311,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -18363,7 +18363,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -18425,7 +18425,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -18539,7 +18539,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -18591,7 +18591,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -18653,7 +18653,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -18705,7 +18705,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -18767,7 +18767,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -18829,7 +18829,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -18879,7 +18879,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>mp-755572</t>
+          <t>mp-1078341</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -18891,7 +18891,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -18953,7 +18953,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -19015,7 +19015,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -19067,7 +19067,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -19129,7 +19129,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -19181,7 +19181,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -19305,7 +19305,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -19429,7 +19429,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -19481,7 +19481,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -19533,7 +19533,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -19585,7 +19585,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -19637,7 +19637,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -19689,7 +19689,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -19751,7 +19751,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -19813,7 +19813,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -19875,7 +19875,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -19927,7 +19927,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -20041,7 +20041,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -20093,7 +20093,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -20145,7 +20145,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -20197,7 +20197,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -20249,7 +20249,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -20311,7 +20311,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -20373,7 +20373,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -20423,11 +20423,11 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>mp-5246</t>
+          <t>mp-4342</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.0585</v>
+        <v>1.476</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -20497,7 +20497,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -20559,7 +20559,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -20671,11 +20671,11 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>mp-1076633</t>
+          <t>mp-18815</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>0.2186000000000003</v>
+        <v>3.046</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -20733,11 +20733,11 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>mp-5304</t>
+          <t>mp-780422</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.4924</v>
+        <v>4.403700000000001</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -20795,11 +20795,11 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>mp-19357</t>
+          <t>mp-19281</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1.913800000000001</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -20869,7 +20869,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -20921,7 +20921,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -20973,7 +20973,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -21025,7 +21025,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -21087,7 +21087,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -21139,7 +21139,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -21189,7 +21189,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>mp-19350</t>
+          <t>mp-19053</t>
         </is>
       </c>
       <c r="N85" t="n">
@@ -21201,7 +21201,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -21263,7 +21263,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -21315,7 +21315,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -21429,7 +21429,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -21481,7 +21481,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -21543,7 +21543,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -21605,7 +21605,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -21667,7 +21667,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -21729,7 +21729,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -21791,7 +21791,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -21841,11 +21841,11 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>mp-4699</t>
+          <t>mp-754818</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.5313</v>
+        <v>2.7139</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -21915,7 +21915,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -22027,11 +22027,11 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>mp-763901</t>
+          <t>mp-555665</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.9798</v>
+        <v>3.0358</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -22101,7 +22101,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -22153,7 +22153,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -22215,7 +22215,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -22267,7 +22267,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -22319,7 +22319,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -22381,7 +22381,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -22443,7 +22443,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -22495,7 +22495,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -22557,7 +22557,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -22609,7 +22609,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -22733,7 +22733,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -22785,7 +22785,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -22837,7 +22837,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -22961,7 +22961,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -23013,7 +23013,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -23075,7 +23075,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -23127,7 +23127,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -23189,7 +23189,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -23251,7 +23251,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -23313,7 +23313,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -23365,7 +23365,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -23417,7 +23417,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -23469,7 +23469,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -23521,7 +23521,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
@@ -23583,7 +23583,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -23645,7 +23645,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -23769,7 +23769,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -23831,7 +23831,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -23883,7 +23883,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -23945,7 +23945,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -24069,7 +24069,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -24121,7 +24121,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -24173,7 +24173,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -24235,7 +24235,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -24287,7 +24287,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -24339,7 +24339,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -24391,7 +24391,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -24505,7 +24505,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -24629,7 +24629,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -24679,7 +24679,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>mp-550781</t>
+          <t>mp-1272815</t>
         </is>
       </c>
       <c r="N145" t="n">
@@ -24691,7 +24691,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -24753,7 +24753,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
@@ -24815,7 +24815,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -24877,7 +24877,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
@@ -24939,7 +24939,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -25001,7 +25001,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -25053,7 +25053,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -25105,7 +25105,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -25157,7 +25157,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -25209,7 +25209,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -25261,7 +25261,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
@@ -25311,11 +25311,11 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>mp-554811</t>
+          <t>mp-1187389</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>1.4396</v>
+        <v>0</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -25375,7 +25375,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -25427,7 +25427,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -25479,7 +25479,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -25531,7 +25531,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -25593,7 +25593,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -25643,11 +25643,11 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>mp-1101462</t>
+          <t>mp-977408</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>0.9465000000000005</v>
+        <v>0.1116000000000001</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -25707,7 +25707,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -25759,7 +25759,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -25873,7 +25873,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -25935,7 +25935,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -25997,7 +25997,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -26059,7 +26059,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -26171,11 +26171,11 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>mp-1187577</t>
+          <t>mp-777295</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>1.9289</v>
+        <v>2.4448</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -26235,7 +26235,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -26287,7 +26287,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -26339,7 +26339,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -26391,7 +26391,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -26443,7 +26443,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -26495,7 +26495,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -26547,7 +26547,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -26609,7 +26609,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -26733,7 +26733,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -26785,7 +26785,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -26837,7 +26837,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -26899,7 +26899,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -26961,7 +26961,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -27023,7 +27023,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -27085,7 +27085,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -27137,7 +27137,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -27199,7 +27199,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -27313,7 +27313,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -27365,7 +27365,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -27427,7 +27427,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -27573,7 +27573,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>mp-753992</t>
+          <t>mp-1273356</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -28111,11 +28111,11 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>mp-757501</t>
+          <t>mp-675227</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.8679000000000001</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>mp-3597</t>
+          <t>mp-5773</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -28473,7 +28473,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>mp-1399298</t>
+          <t>mp-1368304</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -28659,11 +28659,11 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>mp-1017467</t>
+          <t>mp-19201</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.4685999999999999</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>mp-1193602</t>
+          <t>mp-1078659</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -30491,7 +30491,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>mp-1212757</t>
+          <t>mp-1075975</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -31629,11 +31629,11 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>mp-1193069</t>
+          <t>mp-22081</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0.4942000000000002</v>
+        <v>0.4351000000000002</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -32261,11 +32261,11 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>mp-1504268</t>
+          <t>mp-1181307</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>0.9398</v>
+        <v>0</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -32323,11 +32323,11 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>mp-605340</t>
+          <t>mp-1181002</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>1.4672</v>
+        <v>1.2424</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -32437,11 +32437,11 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>mp-1205375</t>
+          <t>mp-1272373</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>0.5803000000000003</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -33297,11 +33297,11 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>mp-558920</t>
+          <t>mp-4748</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.4364</v>
+        <v>1.8238</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -33587,11 +33587,11 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>mp-1182197</t>
+          <t>mp-20852</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>1.898</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>mp-755569</t>
+          <t>mp-1178420</t>
         </is>
       </c>
       <c r="N107" t="n">
@@ -35505,11 +35505,11 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>mp-1099588</t>
+          <t>mp-20243</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>0.7234999999999996</v>
+        <v>1.0882</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>mp-1075973</t>
+          <t>mp-22203</t>
         </is>
       </c>
       <c r="N140" t="n">
@@ -35795,11 +35795,11 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>mp-769855</t>
+          <t>mp-1372100</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>0.6795</v>
+        <v>0</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>mp-17097</t>
+          <t>mp-1016848</t>
         </is>
       </c>
       <c r="N145" t="n">
@@ -36105,7 +36105,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>mp-22534</t>
+          <t>mp-1179112</t>
         </is>
       </c>
       <c r="N148" t="n">
@@ -36799,11 +36799,11 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>mp-770614</t>
+          <t>mp-756464</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>0.1429999999999998</v>
+        <v>0</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -37317,11 +37317,11 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>mp-554211</t>
+          <t>mp-554270</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>0</v>
+        <v>0.3708</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -37845,11 +37845,11 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>mp-1330514</t>
+          <t>mp-22668</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>0.0072999999999998</v>
+        <v>0</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -37907,11 +37907,11 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>mp-1275986</t>
+          <t>mp-1376289</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>0</v>
+        <v>1.3141</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -38293,11 +38293,11 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>mp-1418444</t>
+          <t>mp-1343327</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.0480999999999998</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -38357,7 +38357,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -38419,7 +38419,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -38471,7 +38471,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -38533,7 +38533,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -38595,7 +38595,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -38657,7 +38657,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -38709,7 +38709,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -38761,7 +38761,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -38813,7 +38813,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -38875,7 +38875,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -38925,11 +38925,11 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>mp-5663</t>
+          <t>mp-3316</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.299</v>
+        <v>2.2112</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -38989,7 +38989,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -39051,7 +39051,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -39113,7 +39113,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -39175,7 +39175,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -39227,7 +39227,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -39289,7 +39289,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -39339,11 +39339,11 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>mp-20991</t>
+          <t>mp-561598</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.0272999999999998</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -39351,7 +39351,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -39413,7 +39413,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -39525,11 +39525,11 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>mp-1178513</t>
+          <t>mp-3163</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.6650999999999998</v>
+        <v>0.3723999999999998</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -39587,11 +39587,11 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>mp-1178513</t>
+          <t>mp-3163</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.6650999999999998</v>
+        <v>0.3723999999999998</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -39599,7 +39599,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -39649,7 +39649,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>mp-1182811</t>
+          <t>mp-5735</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -39661,7 +39661,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -39723,7 +39723,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -39773,11 +39773,11 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>mp-504715</t>
+          <t>mp-5777</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2.293</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -39785,7 +39785,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -39835,11 +39835,11 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>mp-504715</t>
+          <t>mp-5777</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2.293</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -39897,11 +39897,11 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>mp-504715</t>
+          <t>mp-5777</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.293</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -39909,7 +39909,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -39971,7 +39971,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -40023,7 +40023,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -40085,7 +40085,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -40147,7 +40147,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -40209,7 +40209,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -40261,7 +40261,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -40313,7 +40313,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -40365,7 +40365,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -40417,7 +40417,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -40479,7 +40479,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -40541,7 +40541,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -40603,7 +40603,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -40653,11 +40653,11 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>mp-1181886</t>
+          <t>mp-17552</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.6218</v>
+        <v>4.7336</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -40777,11 +40777,11 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>mp-5827</t>
+          <t>mp-3442</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>1.8285</v>
+        <v>2.2434</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -40789,7 +40789,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -40851,7 +40851,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -40913,7 +40913,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -40963,11 +40963,11 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>mp-7588</t>
+          <t>mp-1016903</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>1.301</v>
+        <v>0.1022000000000007</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -41037,7 +41037,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -41099,7 +41099,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -41149,11 +41149,11 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>mp-1179263</t>
+          <t>mp-13641</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>1.4505</v>
+        <v>2.9057</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -41223,7 +41223,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -41285,7 +41285,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -41337,7 +41337,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -41389,7 +41389,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -41451,7 +41451,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -41503,7 +41503,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -41553,11 +41553,11 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>mp-756630</t>
+          <t>mp-984723</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>5.723000000000001</v>
+        <v>2.948300000000001</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -41627,7 +41627,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -41679,7 +41679,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -41741,7 +41741,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -41803,7 +41803,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -41865,7 +41865,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -41917,7 +41917,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -41967,11 +41967,11 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>mp-756458</t>
+          <t>mp-754184</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>5.803000000000001</v>
+        <v>3.5604</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -41979,7 +41979,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -42029,11 +42029,11 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>mp-1213082</t>
+          <t>mp-1213088</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.6631</v>
+        <v>2.9001</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -42041,7 +42041,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -42091,11 +42091,11 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>mp-772217</t>
+          <t>mp-754208</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>1.956</v>
+        <v>2.5532</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -42103,7 +42103,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -42227,7 +42227,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -42277,7 +42277,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>mp-1184304</t>
+          <t>mp-1212980</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -42289,7 +42289,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -42351,7 +42351,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -42413,7 +42413,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -42463,11 +42463,11 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>mp-771055</t>
+          <t>mp-1178354</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0.3877000000000006</v>
+        <v>0.4662999999999995</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -42475,7 +42475,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -42537,7 +42537,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -42599,7 +42599,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -42661,7 +42661,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -42723,7 +42723,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -42775,7 +42775,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -42837,7 +42837,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -42899,7 +42899,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -42961,7 +42961,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -43023,7 +43023,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -43085,7 +43085,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -43197,11 +43197,11 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>mp-982040</t>
+          <t>mp-29799</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>0.4914</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -43209,7 +43209,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -43271,7 +43271,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -43333,7 +43333,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -43395,7 +43395,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -43457,7 +43457,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -43509,7 +43509,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -43571,7 +43571,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -43633,7 +43633,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -43683,11 +43683,11 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>mp-5304</t>
+          <t>mp-780422</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.4924</v>
+        <v>4.403700000000001</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -43695,7 +43695,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -43757,7 +43757,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -43819,7 +43819,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -43881,7 +43881,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -43943,7 +43943,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -44005,7 +44005,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -44067,7 +44067,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -44119,7 +44119,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -44171,7 +44171,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -44223,7 +44223,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -44275,7 +44275,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -44337,7 +44337,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -44387,11 +44387,11 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>mp-768505</t>
+          <t>mp-755792</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.8828</v>
+        <v>3.6376</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -44399,7 +44399,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -44451,7 +44451,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -44513,7 +44513,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -44575,7 +44575,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -44627,7 +44627,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -44679,7 +44679,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -44731,7 +44731,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -44781,11 +44781,11 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>mp-752755</t>
+          <t>mp-20011</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>1.7037</v>
+        <v>1.4696</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -44793,7 +44793,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -44845,7 +44845,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -44897,7 +44897,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -44959,7 +44959,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -45021,7 +45021,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -45071,11 +45071,11 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>mp-1186316</t>
+          <t>mp-755138</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>1.6468</v>
+        <v>2.6533</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -45083,7 +45083,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -45145,7 +45145,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -45197,7 +45197,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -45259,7 +45259,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -45321,7 +45321,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -45383,7 +45383,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -45445,7 +45445,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -45507,7 +45507,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -45569,7 +45569,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -45631,7 +45631,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -45745,7 +45745,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -45807,7 +45807,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -45859,7 +45859,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -45921,7 +45921,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -45973,7 +45973,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -46035,7 +46035,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -46097,7 +46097,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -46159,7 +46159,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -46211,7 +46211,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -46263,7 +46263,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -46325,7 +46325,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -46439,7 +46439,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -46491,7 +46491,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -46553,7 +46553,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -46615,7 +46615,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -46677,7 +46677,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -46739,7 +46739,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -46801,7 +46801,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -46863,7 +46863,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -46925,7 +46925,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -46987,7 +46987,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -47049,7 +47049,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -47099,11 +47099,11 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>mp-12867</t>
+          <t>mp-546973</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>1.5555</v>
+        <v>0.9698000000000002</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -47111,7 +47111,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -47161,11 +47161,11 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>mp-12867</t>
+          <t>mp-546973</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>1.5555</v>
+        <v>0.9698000000000002</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -47173,7 +47173,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -47223,11 +47223,11 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>mp-551830</t>
+          <t>mp-776018</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>1.787</v>
+        <v>1.7362</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -47235,7 +47235,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -47297,7 +47297,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -47349,7 +47349,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -47411,7 +47411,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -47461,11 +47461,11 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>mp-613402</t>
+          <t>mp-3323</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
+        <v>3.214399999999999</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -47473,7 +47473,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -47523,11 +47523,11 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>mp-613402</t>
+          <t>mp-3323</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
+        <v>3.214399999999999</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -47597,7 +47597,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -47659,7 +47659,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -47721,7 +47721,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -47783,7 +47783,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -47845,7 +47845,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -47907,7 +47907,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -47959,7 +47959,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -48011,7 +48011,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -48063,7 +48063,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -48125,7 +48125,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -48177,7 +48177,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -48239,7 +48239,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -48289,11 +48289,11 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>mp-756281</t>
+          <t>mp-1101265</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>5.7744</v>
+        <v>3.5534</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -48301,7 +48301,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -48363,7 +48363,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -48425,7 +48425,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -48539,7 +48539,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -48591,7 +48591,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -48641,11 +48641,11 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>mp-7964</t>
+          <t>mp-756214</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.4965</v>
+        <v>4.958600000000001</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -48653,7 +48653,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -48703,11 +48703,11 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>mp-7964</t>
+          <t>mp-756214</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.4965</v>
+        <v>4.958600000000001</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -48715,7 +48715,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -48777,7 +48777,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -48839,7 +48839,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -48901,7 +48901,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -48963,7 +48963,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -49015,7 +49015,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -49065,11 +49065,11 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>mp-1333124</t>
+          <t>mp-1340758</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>0.0055999999999998</v>
+        <v>0</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -49139,7 +49139,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -49201,7 +49201,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -49263,7 +49263,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -49325,7 +49325,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -49377,7 +49377,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
